--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41230AB2-E2C7-4DA8-ABBD-0C548E1778BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BEE379-C29D-4958-9A0E-5CCBD5D016E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
     <sheet name="OldImportLogic" sheetId="2" r:id="rId2"/>
+    <sheet name="prodfix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Population</t>
   </si>
@@ -111,6 +112,57 @@
   </si>
   <si>
     <t>\Testdata\Templates\UtilityOutcome\QOL\OldImportLogic\QOL_OldImportExpectedResult_mainpulated_data.xlsx</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Import_Pop</t>
+  </si>
+  <si>
+    <t>ExtractionFile</t>
+  </si>
+  <si>
+    <t>scenario1</t>
+  </si>
+  <si>
+    <t>UtilityOutcome - PRODFix_QOL_ECON - Ovid search - 9/19/2022</t>
+  </si>
+  <si>
+    <t>PRODFix_QOL_ECON - UtilityOutcome</t>
+  </si>
+  <si>
+    <t>PRODFix_QOL_ECON - UtilityOutcome_radio_button</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\UtilityOutcome_Feature_Extraction_file_ExpectedData.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_QoL_UtilityData_ECON_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>ExcelReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>scenario2</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_ECON_UtilityData_QoL_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>scenario3</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_Both_QoL_ECON_Utility.xlsx</t>
+  </si>
+  <si>
+    <t>scenario4</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
   </si>
 </sst>
 </file>
@@ -525,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -612,4 +664,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.77734375" customWidth="1"/>
+    <col min="8" max="8" width="37.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BEE379-C29D-4958-9A0E-5CCBD5D016E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D833B9C3-1941-41A2-84FE-F7B53777A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>scenario1</t>
   </si>
   <si>
-    <t>UtilityOutcome - PRODFix_QOL_ECON - Ovid search - 9/19/2022</t>
-  </si>
-  <si>
     <t>PRODFix_QOL_ECON - UtilityOutcome</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome - PRODFix_QOL_ECON - 9/19/2022</t>
   </si>
 </sst>
 </file>
@@ -670,13 +670,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -728,13 +728,13 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -743,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -755,7 +755,7 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -779,16 +779,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -797,10 +797,10 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -822,16 +822,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -840,10 +840,10 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -865,16 +865,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -883,10 +883,10 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D833B9C3-1941-41A2-84FE-F7B53777A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A10F36-7D9B-4516-AB2B-2C669DF6E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Population</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Import_Pop</t>
-  </si>
-  <si>
-    <t>ExtractionFile</t>
-  </si>
-  <si>
     <t>scenario1</t>
   </si>
   <si>
@@ -162,7 +156,28 @@
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
   </si>
   <si>
-    <t>UtilityOutcome - PRODFix_QOL_ECON - 9/19/2022</t>
+    <t>PRODFix_QOL_ECON - UtilityOutcome - 9/19/2022</t>
+  </si>
+  <si>
+    <t>Files_to_upload</t>
+  </si>
+  <si>
+    <t>Expected_File_names</t>
+  </si>
+  <si>
+    <t>Population_name</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_QoL_UtilityData_ECON_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_ECON_UtilityData_QoL_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_Both_QoL_ECON_Utility.xlsx</t>
+  </si>
+  <si>
+    <t>UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
   </si>
 </sst>
 </file>
@@ -668,10 +683,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,18 +697,18 @@
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108.77734375" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="37.44140625" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -711,30 +726,33 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -743,52 +761,55 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -797,41 +818,44 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -840,41 +864,44 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -883,26 +910,29 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A10F36-7D9B-4516-AB2B-2C669DF6E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16952C-119E-4811-983B-CAA3E8ED1309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -63,18 +63,6 @@
     <t>Quality of Life_radio_button</t>
   </si>
   <si>
-    <t>Test894 - Test894</t>
-  </si>
-  <si>
-    <t>Test894 - Test894_radio_button</t>
-  </si>
-  <si>
-    <t>ExcelReport-Test894 - Test894-Quality of Life-</t>
-  </si>
-  <si>
-    <t>WordReport-Test894 - Test894-Quality of Life-</t>
-  </si>
-  <si>
     <t>ExpectedSourceTemplateFile</t>
   </si>
   <si>
@@ -108,12 +96,6 @@
     <t>WordReport-AAA - mCRPC-Quality of Life-</t>
   </si>
   <si>
-    <t>\Testdata\Templates\UtilityOutcome\QOL\Test 894 population extractionfile_manipulated_data.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\UtilityOutcome\QOL\OldImportLogic\QOL_OldImportExpectedResult_mainpulated_data.xlsx</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -178,6 +160,24 @@
   </si>
   <si>
     <t>UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
+  </si>
+  <si>
+    <t>QOL_and_ECON - UtilityOutcome</t>
+  </si>
+  <si>
+    <t>QOL_and_ECON - UtilityOutcome_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-QOL_and_ECON - UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-QOL_and_ECON - UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\UtilityOutcome_Feature_Extraction_file_QOL_with_manipulated_data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_QOL\QOL_OldImportExpectedResult_mainpulated_data.xlsx</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -529,13 +529,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -555,13 +555,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -569,18 +569,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +593,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,13 +622,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -648,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
@@ -662,18 +662,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -705,10 +705,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -761,36 +761,36 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -800,16 +800,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -818,44 +818,44 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -864,44 +864,44 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -910,30 +910,30 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16952C-119E-4811-983B-CAA3E8ED1309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B25BA-F212-41C5-B72C-2568F649ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -84,18 +84,6 @@
     <t>reported_variable_section1_checkbox</t>
   </si>
   <si>
-    <t>AAA - mCRPC</t>
-  </si>
-  <si>
-    <t>AAA - mCRPC_radio_button</t>
-  </si>
-  <si>
-    <t>ExcelReport-AAA - mCRPC-Quality of Life-</t>
-  </si>
-  <si>
-    <t>WordReport-AAA - mCRPC-Quality of Life-</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -178,6 +166,18 @@
   </si>
   <si>
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_QOL\QOL_OldImportExpectedResult_mainpulated_data.xlsx</t>
+  </si>
+  <si>
+    <t>Alkermes - Melanoma</t>
+  </si>
+  <si>
+    <t>Alkermes - Melanoma_radio_button</t>
+  </si>
+  <si>
+    <t>ExcelReport-Alkermes - Melanoma-Quality of Life-</t>
+  </si>
+  <si>
+    <t>WordReport-Alkermes - Melanoma-Quality of Life-</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -575,12 +575,12 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,10 +636,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -668,12 +668,12 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +705,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -761,13 +761,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -776,12 +776,12 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -790,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -800,16 +800,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -818,13 +818,13 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -846,16 +846,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -864,13 +864,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -892,16 +892,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445B25BA-F212-41C5-B72C-2568F649ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F6903-5BFC-48D7-86A4-F35981E9F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>Population</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>Quality of Life</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>WordReport-Alkermes - Melanoma-Quality of Life-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-QOL_and_ECON - UtilityOutcome-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Alkermes - Melanoma-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-2023_</t>
   </si>
 </sst>
 </file>
@@ -497,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,13 +535,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -543,44 +549,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -592,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,13 +628,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -636,44 +642,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,10 +711,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -723,19 +729,19 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -743,197 +749,197 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
         <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F6903-5BFC-48D7-86A4-F35981E9F328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A93BE-2832-4AED-AA08-B46B11C69EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>Population</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_NegativeScenario_QoL__ECON_NoUtility.xlsx</t>
-  </si>
-  <si>
-    <t>PRODFix_QOL_ECON - UtilityOutcome - 9/19/2022</t>
   </si>
   <si>
     <t>Files_to_upload</t>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -561,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -570,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -581,12 +578,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -642,10 +639,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -654,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -663,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -674,12 +671,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -691,14 +688,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -714,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -732,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -752,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -773,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -801,7 +797,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -809,7 +805,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -830,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -855,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -876,7 +872,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -901,7 +897,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -922,7 +918,7 @@
         <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9A93BE-2832-4AED-AA08-B46B11C69EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CF54A-AC65-4CBF-B467-5640C862338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\PROD_Fix\Templates\UtilityOutcome_Feature_Extraction_file_QoL_UtilityData_ECON_NoUtility.xlsx</t>
   </si>
   <si>
-    <t>ExcelReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>StandardExcelReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-PRODFix_QOL_ECON-UtilityOutcome-Quality of Life-</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -578,12 +578,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +639,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,12 +671,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -769,7 +769,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -778,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -792,17 +792,17 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -823,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -869,10 +869,10 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -915,10 +915,10 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CF54A-AC65-4CBF-B467-5640C862338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644F9EBF-AC5E-4009-8578-0D0388022850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>QOL_and_ECON - UtilityOutcome_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-QOL_and_ECON - UtilityOutcome-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-QOL_and_ECON - UtilityOutcome-Quality of Life-</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Alkermes - Melanoma_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-Alkermes - Melanoma-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-Alkermes - Melanoma-Quality of Life-</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>ExcelReport-PRODFix_QOL_ECON-UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-Alkermes- Melanoma-Quality of Life-</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -578,12 +578,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,10 +639,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,12 +671,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +699,11 @@
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="108.77734375" customWidth="1"/>
-    <col min="8" max="9" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="141.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -778,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -797,7 +798,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644F9EBF-AC5E-4009-8578-0D0388022850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EDCCA9-9FFA-4867-A953-FCB68DA36108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -165,15 +165,6 @@
     <t>WordReport-Alkermes - Melanoma-Quality of Life-</t>
   </si>
   <si>
-    <t>StandardExcelReport-QOL_and_ECON - UtilityOutcome-Quality of Life-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-Alkermes - Melanoma-Quality of Life-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-PRODFix_QOL_ECON - UtilityOutcome-Quality of Life-2023_</t>
-  </si>
-  <si>
     <t>ExcelReport-PRODFix_QOL_ECON-UtilityOutcome-Quality of Life-</t>
   </si>
   <si>
@@ -181,6 +172,15 @@
   </si>
   <si>
     <t>ExcelReport-Alkermes- Melanoma-Quality of Life-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Alkermes-Melanoma-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-QOL_and_ECON-UtilityOutcome-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-PRODFix_QOL_ECON-UtilityOutcome-Quality of Life-2023_</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
+++ b/Testdata/UtilityOutcome_QOL_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EDCCA9-9FFA-4867-A953-FCB68DA36108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78508D91-BC64-4E05-994D-83DA4E65781B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewImportLogic" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>ExcelReport-QOL_and_ECON-UtilityOutcome-Quality of Life-</t>
   </si>
   <si>
-    <t>ExcelReport-Alkermes- Melanoma-Quality of Life-</t>
-  </si>
-  <si>
     <t>StandardExcelReport-Alkermes-Melanoma-Quality of Life-2023_</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>StandardExcelReport-PRODFix_QOL_ECON-UtilityOutcome-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-Alkermes-Melanoma-Quality of Life-</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACE520-ADCB-4DB7-8DF5-26FC52F0DAE9}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A766AAB-F65A-4AA3-9C8B-AA11C2EB9947}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
